--- a/excel_files/input.xlsx
+++ b/excel_files/input.xlsx
@@ -25,10 +25,10 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>1117659-CRM</t>
+    <t>1144910-BLK</t>
   </si>
   <si>
-    <t>1144012-BLLE</t>
+    <t>1129050K-BRWH</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6">
         <v>8</v>
@@ -459,7 +459,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>7</v>
@@ -473,21 +473,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -495,21 +495,21 @@
         <v>3</v>
       </c>
       <c r="B6" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -517,21 +517,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="C9" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -539,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>

--- a/excel_files/input.xlsx
+++ b/excel_files/input.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ccb4d32033423b0/Desktop/uggus v1.0/excel_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_172C4FAFC54F46D5DBBDD4A4E7F521EA9B4C20BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C7CA462-CF2E-4FDD-A6A3-A943B4DF9B97}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -25,17 +31,16 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>1144910-BLK</t>
+    <t>1094269-CHE</t>
   </si>
   <si>
-    <t>1129050K-BRWH</t>
+    <t>1094269-BLK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,47 +98,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -141,10 +147,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -182,71 +188,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -274,7 +280,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -297,11 +303,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -310,13 +316,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -326,7 +332,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -335,7 +341,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -344,7 +350,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -352,10 +358,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -420,129 +426,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
         <v>8</v>
       </c>
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2</v>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/input.xlsx
+++ b/excel_files/input.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ccb4d32033423b0/Desktop/uggus v1.0/excel_files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_172C4FAFC54F46D5DBBDD4A4E7F521EA9B4C20BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C7CA462-CF2E-4FDD-A6A3-A943B4DF9B97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>SKU</t>
   </si>
@@ -40,7 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,48 +93,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -147,10 +141,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -188,71 +182,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -280,7 +274,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -303,11 +297,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -316,13 +310,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -332,7 +326,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -341,7 +335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -350,7 +344,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -358,10 +352,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -426,130 +420,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
     </row>

--- a/excel_files/input.xlsx
+++ b/excel_files/input.xlsx
@@ -25,10 +25,10 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>1094269-CHE</t>
+    <t>1137973-BLK</t>
   </si>
   <si>
-    <t>1094269-BLK</t>
+    <t>1144910-BLK</t>
   </si>
 </sst>
 </file>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,6 +47,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -106,6 +112,12 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -430,9 +442,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -446,12 +458,12 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -461,10 +473,10 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="7">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8">
         <v>1</v>
       </c>
     </row>

--- a/excel_files/input.xlsx
+++ b/excel_files/input.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icesiv/work/play_uggus/excel_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829FFDED-4789-554B-86C6-C8605858F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>SKU</t>
   </si>
@@ -25,17 +31,31 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>1137973-BLK</t>
-  </si>
-  <si>
-    <t>1144910-BLK</t>
+    <t>1136910-PMHT</t>
+  </si>
+  <si>
+    <t>2X</t>
+  </si>
+  <si>
+    <t>1151610I-CHE</t>
+  </si>
+  <si>
+    <t>1136910-CGMH</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>1144053-BNGG</t>
+  </si>
+  <si>
+    <t>02/03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -51,9 +71,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF606266"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -99,50 +119,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -153,10 +168,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -194,71 +209,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,7 +301,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -309,11 +324,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -322,13 +337,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -338,7 +353,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -347,7 +362,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,7 +371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -364,10 +379,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -432,51 +447,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7">
+    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
         <v>11</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C4" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
     </row>

--- a/excel_files/input.xlsx
+++ b/excel_files/input.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icesiv/work/play_uggus/excel_files/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829FFDED-4789-554B-86C6-C8605858F783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="28">
   <si>
     <t>SKU</t>
   </si>
@@ -31,32 +25,87 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>1136910-PMHT</t>
-  </si>
-  <si>
-    <t>2X</t>
-  </si>
-  <si>
-    <t>1151610I-CHE</t>
-  </si>
-  <si>
-    <t>1136910-CGMH</t>
-  </si>
-  <si>
-    <t>XS</t>
-  </si>
-  <si>
-    <t>1144053-BNGG</t>
-  </si>
-  <si>
-    <t>02/03</t>
+    <t>1143834-CHE</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>1143834-BLK</t>
+  </si>
+  <si>
+    <t>1094269-MDSD</t>
+  </si>
+  <si>
+    <t>1106872-CHE</t>
+  </si>
+  <si>
+    <t>1134810-BLK</t>
+  </si>
+  <si>
+    <t>1134810-CHE</t>
+  </si>
+  <si>
+    <t>1143976-NAT</t>
+  </si>
+  <si>
+    <t>1130750K-CHE</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>1135092-CHE</t>
+  </si>
+  <si>
+    <t>1138252-CHE</t>
+  </si>
+  <si>
+    <t>1122550-CHE</t>
+  </si>
+  <si>
+    <t>1143976-HWD</t>
+  </si>
+  <si>
+    <t>1146390-CHE</t>
+  </si>
+  <si>
+    <t>1144032-SAN</t>
+  </si>
+  <si>
+    <t>1117659-CRM</t>
+  </si>
+  <si>
+    <t>1144032-MSG_08</t>
+  </si>
+  <si>
+    <t>1144032-MSG_09</t>
+  </si>
+  <si>
+    <t>1147090-CHE</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,12 +117,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF606266"/>
-      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -119,45 +162,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,10 +213,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -209,71 +254,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -301,7 +346,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -324,11 +369,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -337,13 +382,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -353,7 +398,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -362,7 +407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -371,7 +416,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -379,10 +424,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -447,76 +492,547 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="7">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
+      <c r="C19" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="C23" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="7">
+        <v>8.5</v>
+      </c>
+      <c r="C25" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="C27" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="7">
+        <v>10</v>
+      </c>
+      <c r="C28" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="7">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
